--- a/RGB Matrixs.xlsx
+++ b/RGB Matrixs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>R1</t>
   </si>
@@ -113,12 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC24"/>
+  <dimension ref="B2:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C24"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,15 +561,15 @@
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1">
-        <f>SUM(C3:Y3)</f>
+        <f>SUM(C3:X3)</f>
         <v>18.25</v>
       </c>
       <c r="AB3" t="s">
         <v>7</v>
       </c>
       <c r="AC3">
-        <f>224/(18.25-1)</f>
-        <v>12.985507246376812</v>
+        <f>224/(19.25-1)</f>
+        <v>12.273972602739725</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
@@ -637,7 +638,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z8" si="0">SUM(C4:Y4)</f>
+        <f t="shared" ref="Z4:Z8" si="0">SUM(C4:X4)</f>
         <v>18.25</v>
       </c>
       <c r="AB4" t="s">
@@ -1553,31 +1554,94 @@
         <f>C3/2</f>
         <v>0.5</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="D19" s="4">
+        <f>(D3/2)+D11</f>
+        <v>1.375</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19:X19" si="9">(E3/2)+E11</f>
+        <v>2.75</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="9"/>
+        <v>3.75</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="9"/>
+        <v>5.75</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="9"/>
+        <v>5.625</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="9"/>
+        <v>9.875</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="9"/>
+        <v>11.25</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="9"/>
+        <v>12.25</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="9"/>
+        <v>13.25</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="9"/>
+        <v>14.25</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="9"/>
+        <v>14.125</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="9"/>
+        <v>15.5</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="9"/>
+        <v>15.375</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="9"/>
+        <v>16.75</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="9"/>
+        <v>17.75</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="9"/>
+        <v>18.75</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1">
         <f>SUM(C19:Y19)</f>
-        <v>0.5</v>
+        <v>217.625</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
@@ -1585,34 +1649,97 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:C24" si="9">C4/2</f>
+        <f t="shared" ref="C20:C24" si="10">C4/2</f>
         <v>0.5</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
+      <c r="D20" s="4">
+        <f>(D4/2)+D12</f>
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" ref="D20:X20" si="11">(E4/2)+E12</f>
+        <v>3.5</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="11"/>
+        <v>5.5</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="11"/>
+        <v>6.5</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="11"/>
+        <v>9.5</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="11"/>
+        <v>10.5</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="11"/>
+        <v>11.5</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="11"/>
+        <v>12.5</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="11"/>
+        <v>13.5</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="11"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="11"/>
+        <v>15.5</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="11"/>
+        <v>15.375</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="11"/>
+        <v>16.75</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="11"/>
+        <v>17.75</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="11"/>
+        <v>18.75</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1">
-        <f t="shared" ref="Z20:Z24" si="10">SUM(C20:Y20)</f>
-        <v>0.5</v>
+        <f t="shared" ref="Z20:Z24" si="12">SUM(C20:Y20)</f>
+        <v>195.125</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
@@ -1620,34 +1747,97 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:X21" si="13">(D5/2)+D13</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="13"/>
+        <v>15.75</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="13"/>
+        <v>15.375</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="13"/>
+        <v>16.75</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="13"/>
+        <v>17.75</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="13"/>
+        <v>18.75</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
+        <f t="shared" si="12"/>
+        <v>187.125</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -1655,34 +1845,97 @@
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.875</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:X22" si="14">(D6/2)+D14</f>
+        <v>3.25</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="14"/>
+        <v>4.25</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="14"/>
+        <v>5.25</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="14"/>
+        <v>6.25</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="14"/>
+        <v>7.25</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="14"/>
+        <v>8.25</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="14"/>
+        <v>9.25</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="14"/>
+        <v>10.25</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="14"/>
+        <v>11.25</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="14"/>
+        <v>12.25</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="14"/>
+        <v>13.25</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="14"/>
+        <v>16.125</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
+        <f t="shared" si="12"/>
+        <v>107.75</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
@@ -1690,34 +1943,97 @@
         <v>4</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.625</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:X23" si="15">(D7/2)+D15</f>
+        <v>2.75</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="15"/>
+        <v>3.75</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="15"/>
+        <v>4.75</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="15"/>
+        <v>5.75</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="15"/>
+        <v>6.75</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="15"/>
+        <v>7.75</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="15"/>
+        <v>8.75</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="15"/>
+        <v>9.75</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="15"/>
+        <v>10.75</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="15"/>
+        <v>11.75</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="15"/>
+        <v>12.75</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="15"/>
+        <v>14.875</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="15"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="15"/>
+        <v>15.375</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="15"/>
+        <v>16.75</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="15"/>
+        <v>17.75</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="15"/>
+        <v>18.75</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1">
-        <f t="shared" si="10"/>
-        <v>0.625</v>
+        <f t="shared" si="12"/>
+        <v>184.875</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
@@ -1725,34 +2041,762 @@
         <v>5</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24:X24" si="16">(D8/2)+D16</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="16"/>
+        <v>4.75</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="16"/>
+        <v>14.5</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="16"/>
+        <v>13.25</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="16"/>
+        <v>15.75</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="16"/>
+        <v>15.375</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="16"/>
+        <v>16.75</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="16"/>
+        <v>17.75</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="16"/>
+        <v>18.75</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
+        <f t="shared" si="12"/>
+        <v>134.625</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>7</v>
+      </c>
+      <c r="J26" s="1">
+        <v>8</v>
+      </c>
+      <c r="K26" s="1">
+        <v>9</v>
+      </c>
+      <c r="L26" s="1">
+        <v>10</v>
+      </c>
+      <c r="M26" s="1">
+        <v>11</v>
+      </c>
+      <c r="N26" s="1">
+        <v>12</v>
+      </c>
+      <c r="O26" s="1">
+        <v>13</v>
+      </c>
+      <c r="P26" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>15</v>
+      </c>
+      <c r="R26" s="1">
+        <v>16</v>
+      </c>
+      <c r="S26" s="1">
+        <v>17</v>
+      </c>
+      <c r="T26" s="1">
+        <v>18</v>
+      </c>
+      <c r="U26" s="1">
+        <v>19</v>
+      </c>
+      <c r="V26" s="1">
+        <v>20</v>
+      </c>
+      <c r="W26" s="1">
+        <v>21</v>
+      </c>
+      <c r="X26" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <f>(C19-0.5)*$AC$3</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" ref="D27:X32" si="17">(D19-0.5)*$AC$3</f>
+        <v>10.739726027397261</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="17"/>
+        <v>27.61643835616438</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="17"/>
+        <v>39.890410958904106</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="17"/>
+        <v>52.164383561643831</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="17"/>
+        <v>64.438356164383563</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="17"/>
+        <v>62.904109589041092</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="17"/>
+        <v>79.780821917808211</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="17"/>
+        <v>92.054794520547944</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="17"/>
+        <v>104.32876712328766</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="17"/>
+        <v>116.60273972602739</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="17"/>
+        <v>115.06849315068493</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="17"/>
+        <v>131.94520547945206</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="17"/>
+        <v>144.21917808219177</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="17"/>
+        <v>156.49315068493149</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="17"/>
+        <v>168.76712328767121</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="17"/>
+        <v>167.23287671232876</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="17"/>
+        <v>184.10958904109589</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" si="17"/>
+        <v>182.57534246575341</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="17"/>
+        <v>199.45205479452054</v>
+      </c>
+      <c r="W27" s="5">
+        <f t="shared" si="17"/>
+        <v>211.72602739726025</v>
+      </c>
+      <c r="X27" s="5">
+        <f>(X19-0.5)*$AC$3</f>
+        <v>224</v>
+      </c>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="1">
+        <f>SUM(C27:Y27)</f>
+        <v>2536.1095890410957</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:R32" si="18">(C20-0.5)*$AC$3</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="18"/>
+        <v>24.547945205479451</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="18"/>
+        <v>36.821917808219176</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="18"/>
+        <v>49.095890410958901</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="18"/>
+        <v>61.369863013698627</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="18"/>
+        <v>73.643835616438352</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="18"/>
+        <v>85.917808219178085</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="18"/>
+        <v>98.191780821917803</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="18"/>
+        <v>110.46575342465752</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="18"/>
+        <v>122.73972602739725</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="18"/>
+        <v>135.01369863013699</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="18"/>
+        <v>147.2876712328767</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="18"/>
+        <v>159.56164383561642</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="18"/>
+        <v>171.83561643835617</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="18"/>
+        <v>184.10958904109589</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="18"/>
+        <v>182.57534246575341</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="17"/>
+        <v>199.45205479452054</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="17"/>
+        <v>211.72602739726025</v>
+      </c>
+      <c r="U28" s="5">
+        <f t="shared" si="17"/>
+        <v>224</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W28" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X28" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="1">
+        <f t="shared" ref="Z28:Z32" si="19">SUM(C28:Y28)</f>
+        <v>2259.9452054794529</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="18"/>
+        <v>3.0684931506849313</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="17"/>
+        <v>30.684931506849313</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="17"/>
+        <v>42.958904109589042</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="17"/>
+        <v>55.232876712328761</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="17"/>
+        <v>67.506849315068493</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="17"/>
+        <v>79.780821917808211</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="17"/>
+        <v>92.054794520547944</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="17"/>
+        <v>104.32876712328766</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="17"/>
+        <v>116.60273972602739</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="17"/>
+        <v>128.87671232876713</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="17"/>
+        <v>141.15068493150685</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="17"/>
+        <v>153.42465753424656</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="17"/>
+        <v>165.69863013698628</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="17"/>
+        <v>187.17808219178082</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="17"/>
+        <v>182.57534246575341</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="17"/>
+        <v>199.45205479452054</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="17"/>
+        <v>211.72602739726025</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="17"/>
+        <v>224</v>
+      </c>
+      <c r="U29" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W29" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X29" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="1">
+        <f t="shared" si="19"/>
+        <v>2161.7534246575347</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="18"/>
+        <v>4.602739726027397</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="17"/>
+        <v>33.753424657534246</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="17"/>
+        <v>46.027397260273972</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="17"/>
+        <v>58.301369863013697</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="17"/>
+        <v>70.575342465753423</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="17"/>
+        <v>82.849315068493141</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="17"/>
+        <v>95.123287671232873</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="17"/>
+        <v>107.39726027397259</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="17"/>
+        <v>119.67123287671232</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="17"/>
+        <v>131.94520547945206</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="17"/>
+        <v>144.21917808219177</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="17"/>
+        <v>156.49315068493149</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="17"/>
+        <v>191.7808219178082</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="U30" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W30" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X30" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="1">
+        <f t="shared" si="19"/>
+        <v>1187.5068493150679</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="18"/>
+        <v>1.5342465753424657</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="17"/>
+        <v>27.61643835616438</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="17"/>
+        <v>39.890410958904106</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="17"/>
+        <v>52.164383561643831</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="17"/>
+        <v>64.438356164383563</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="17"/>
+        <v>76.712328767123282</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="17"/>
+        <v>88.986301369863014</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="17"/>
+        <v>101.26027397260273</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="17"/>
+        <v>113.53424657534246</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="17"/>
+        <v>125.80821917808218</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="17"/>
+        <v>138.08219178082192</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" si="17"/>
+        <v>150.35616438356163</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="17"/>
+        <v>176.43835616438355</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="17"/>
+        <v>184.10958904109589</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="17"/>
+        <v>182.57534246575341</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" si="17"/>
+        <v>199.45205479452054</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="17"/>
+        <v>211.72602739726025</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="17"/>
+        <v>224</v>
+      </c>
+      <c r="U31" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="V31" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W31" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X31" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="1">
+        <f t="shared" si="19"/>
+        <v>2134.1369863013706</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="18"/>
+        <v>3.0684931506849313</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="17"/>
+        <v>30.684931506849313</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="17"/>
+        <v>52.164383561643831</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="17"/>
+        <v>171.83561643835617</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="17"/>
+        <v>156.49315068493149</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="17"/>
+        <v>165.69863013698628</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="17"/>
+        <v>187.17808219178082</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="17"/>
+        <v>182.57534246575341</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="17"/>
+        <v>199.45205479452054</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="17"/>
+        <v>211.72602739726025</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="17"/>
+        <v>224</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="U32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X32" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="1">
+        <f t="shared" si="19"/>
+        <v>1517.369863013698</v>
       </c>
     </row>
   </sheetData>

--- a/RGB Matrixs.xlsx
+++ b/RGB Matrixs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
   <si>
     <t>R1</t>
   </si>
@@ -400,14 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC32"/>
+  <dimension ref="B2:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="25" width="6.28515625" customWidth="1"/>
     <col min="28" max="28" width="3.7109375" customWidth="1"/>
   </cols>
@@ -645,8 +647,8 @@
         <v>8</v>
       </c>
       <c r="AC4">
-        <f>64/(6.25-1)</f>
-        <v>12.19047619047619</v>
+        <f>64/(7.25-1)</f>
+        <v>10.24</v>
       </c>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
@@ -2799,6 +2801,131 @@
         <v>1517.369863013698</v>
       </c>
     </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <f>C36</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <f>C38+D36</f>
+        <v>1.25</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ref="E38:I38" si="20">D38+E36</f>
+        <v>2.25</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="20"/>
+        <v>3.25</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="20"/>
+        <v>4.25</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="20"/>
+        <v>5.25</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="20"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <f>C36/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="1">
+        <f>(D36/2)+D38</f>
+        <v>1.375</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" ref="E40:I42" si="21">(E36/2)+E38</f>
+        <v>2.75</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="21"/>
+        <v>3.75</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="21"/>
+        <v>4.75</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="21"/>
+        <v>5.75</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="21"/>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5">
+        <f>(C40-0.5)*$AC$4</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" ref="D42:I42" si="22">(D40-0.5)*$AC$4</f>
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="22"/>
+        <v>23.04</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="22"/>
+        <v>33.28</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="22"/>
+        <v>43.52</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="22"/>
+        <v>53.76</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="22"/>
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RGB Matrixs.xlsx
+++ b/RGB Matrixs.xlsx
@@ -66,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +82,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,13 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:X12" si="3">C12+D4</f>
+        <f t="shared" ref="D12:U12" si="3">C12+D4</f>
         <v>2</v>
       </c>
       <c r="E12" s="4">
@@ -1172,7 +1179,7 @@
         <v>1.5</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ref="D13:X13" si="5">C13+D5</f>
+        <f t="shared" ref="D13:T13" si="5">C13+D5</f>
         <v>2.5</v>
       </c>
       <c r="E13" s="4">
@@ -1258,7 +1265,7 @@
         <v>1.75</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ref="D14:X14" si="6">C14+D6</f>
+        <f t="shared" ref="D14:O14" si="6">C14+D6</f>
         <v>2.75</v>
       </c>
       <c r="E14" s="4">
@@ -1329,7 +1336,7 @@
         <v>1.25</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ref="D15:X15" si="7">C15+D7</f>
+        <f t="shared" ref="D15:T15" si="7">C15+D7</f>
         <v>2.25</v>
       </c>
       <c r="E15" s="4">
@@ -1415,7 +1422,7 @@
         <v>1.5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:X16" si="8">C16+D8</f>
+        <f t="shared" ref="D16:M16" si="8">C16+D8</f>
         <v>2.5</v>
       </c>
       <c r="E16" s="4">
@@ -1659,7 +1666,7 @@
         <v>2.5</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" ref="D20:X20" si="11">(E4/2)+E12</f>
+        <f t="shared" ref="E20:X20" si="11">(E4/2)+E12</f>
         <v>3.5</v>
       </c>
       <c r="F20" s="4">
@@ -2140,76 +2147,76 @@
       <c r="B26" s="1">
         <v>11</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>6</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>7</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>8</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <v>9</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
         <v>10</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="2">
         <v>11</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="2">
         <v>12</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="2">
         <v>13</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="2">
         <v>14</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="2">
         <v>15</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="2">
         <v>16</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="2">
         <v>17</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26" s="2">
         <v>18</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="2">
         <v>19</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="2">
         <v>20</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="2">
         <v>21</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="2">
         <v>22</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26" s="2">
         <v>23</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2221,7 +2228,7 @@
         <f>(C19-0.5)*$AC$3</f>
         <v>0</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="6">
         <f t="shared" ref="D27:X32" si="17">(D19-0.5)*$AC$3</f>
         <v>10.739726027397261</v>
       </c>
@@ -2241,7 +2248,7 @@
         <f t="shared" si="17"/>
         <v>64.438356164383563</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="6">
         <f t="shared" si="17"/>
         <v>62.904109589041092</v>
       </c>
@@ -2261,7 +2268,7 @@
         <f t="shared" si="17"/>
         <v>116.60273972602739</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="6">
         <f t="shared" si="17"/>
         <v>115.06849315068493</v>
       </c>
@@ -2281,7 +2288,7 @@
         <f t="shared" si="17"/>
         <v>168.76712328767121</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="6">
         <f t="shared" si="17"/>
         <v>167.23287671232876</v>
       </c>
@@ -2289,7 +2296,7 @@
         <f t="shared" si="17"/>
         <v>184.10958904109589</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="6">
         <f t="shared" si="17"/>
         <v>182.57534246575341</v>
       </c>
@@ -2391,15 +2398,15 @@
         <f t="shared" si="17"/>
         <v>224</v>
       </c>
-      <c r="V28" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="W28" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="X28" s="5">
+      <c r="V28" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W28" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X28" s="6">
         <f t="shared" si="17"/>
         <v>-6.1369863013698627</v>
       </c>
@@ -2485,19 +2492,19 @@
         <f t="shared" si="17"/>
         <v>224</v>
       </c>
-      <c r="U29" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="V29" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="W29" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="X29" s="5">
+      <c r="U29" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="V29" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W29" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X29" s="6">
         <f t="shared" si="17"/>
         <v>-6.1369863013698627</v>
       </c>
@@ -2563,39 +2570,39 @@
         <f t="shared" si="17"/>
         <v>191.7808219178082</v>
       </c>
-      <c r="P30" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="Q30" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="R30" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="S30" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="T30" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="U30" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="V30" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="W30" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="X30" s="5">
+      <c r="P30" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="S30" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="T30" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="U30" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="V30" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W30" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X30" s="6">
         <f t="shared" si="17"/>
         <v>-6.1369863013698627</v>
       </c>
@@ -2681,19 +2688,19 @@
         <f t="shared" si="17"/>
         <v>224</v>
       </c>
-      <c r="U31" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="V31" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="W31" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="X31" s="5">
+      <c r="U31" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="V31" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W31" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X31" s="6">
         <f t="shared" si="17"/>
         <v>-6.1369863013698627</v>
       </c>
@@ -2751,47 +2758,47 @@
         <f t="shared" si="17"/>
         <v>224</v>
       </c>
-      <c r="N32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="R32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="S32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="T32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="U32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="V32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="W32" s="5">
-        <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
-      </c>
-      <c r="X32" s="5">
+      <c r="N32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="Q32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="T32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="V32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="W32" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.1369863013698627</v>
+      </c>
+      <c r="X32" s="6">
         <f t="shared" si="17"/>
         <v>-6.1369863013698627</v>
       </c>
@@ -2873,7 +2880,7 @@
         <v>1.375</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" ref="E40:I42" si="21">(E36/2)+E38</f>
+        <f t="shared" ref="E40:I40" si="21">(E36/2)+E38</f>
         <v>2.75</v>
       </c>
       <c r="F40" s="1">
@@ -2901,7 +2908,7 @@
         <f>(C40-0.5)*$AC$4</f>
         <v>0</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
         <f t="shared" ref="D42:I42" si="22">(D40-0.5)*$AC$4</f>
         <v>8.9600000000000009</v>
       </c>

--- a/RGB Matrixs.xlsx
+++ b/RGB Matrixs.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
   <si>
     <t>R1</t>
   </si>
@@ -119,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -127,6 +128,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K38" sqref="K37:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,8 +608,8 @@
         <v>7</v>
       </c>
       <c r="AC3">
-        <f>224/(19.25-1)</f>
-        <v>12.273972602739725</v>
+        <f>224/(18.25-1)</f>
+        <v>12.985507246376812</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
@@ -1564,93 +1595,93 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="4">
-        <f>(D3/2)+D11</f>
-        <v>1.375</v>
+        <f>(D3/2)+C11</f>
+        <v>1.125</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" ref="E19:X19" si="9">(E3/2)+E11</f>
-        <v>2.75</v>
+        <f t="shared" ref="E19:X19" si="9">(E3/2)+D11</f>
+        <v>1.75</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="9"/>
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="9"/>
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="9"/>
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="9"/>
-        <v>5.625</v>
+        <v>5.375</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="9"/>
-        <v>9.875</v>
+        <v>9.625</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="9"/>
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="9"/>
-        <v>12.25</v>
+        <v>11.25</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="9"/>
-        <v>13.25</v>
+        <v>12.25</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="9"/>
-        <v>14.25</v>
+        <v>13.25</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="9"/>
-        <v>14.125</v>
+        <v>13.875</v>
       </c>
       <c r="T19" s="4">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="9"/>
-        <v>15.375</v>
+        <v>15.125</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="9"/>
-        <v>16.75</v>
+        <v>15.75</v>
       </c>
       <c r="W19" s="4">
         <f t="shared" si="9"/>
-        <v>17.75</v>
+        <v>16.75</v>
       </c>
       <c r="X19" s="4">
         <f t="shared" si="9"/>
-        <v>18.75</v>
+        <v>17.75</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1">
         <f>SUM(C19:Y19)</f>
-        <v>217.625</v>
+        <v>200.375</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
@@ -1662,80 +1693,80 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="4">
-        <f>(D4/2)+D12</f>
+        <f t="shared" ref="D20:X20" si="11">(D4/2)+C12</f>
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="11"/>
         <v>2.5</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" ref="E20:X20" si="11">(E4/2)+E12</f>
-        <v>3.5</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="11"/>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="11"/>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="11"/>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="11"/>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="11"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="11"/>
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="11"/>
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="11"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="11"/>
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="11"/>
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="11"/>
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="11"/>
-        <v>15.375</v>
+        <v>15.125</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="11"/>
-        <v>16.75</v>
+        <v>15.75</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" si="11"/>
-        <v>17.75</v>
+        <v>16.75</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="11"/>
-        <v>18.75</v>
+        <v>17.75</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="11"/>
@@ -1748,7 +1779,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1">
         <f t="shared" ref="Z20:Z24" si="12">SUM(C20:Y20)</f>
-        <v>195.125</v>
+        <v>196.125</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
@@ -1760,76 +1791,76 @@
         <v>0.75</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ref="D21:X21" si="13">(D5/2)+D13</f>
-        <v>3</v>
+        <f t="shared" ref="D21:X21" si="13">(D5/2)+C13</f>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="13"/>
-        <v>15.75</v>
+        <v>14.25</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="13"/>
-        <v>15.375</v>
+        <v>15.125</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" si="13"/>
-        <v>16.75</v>
+        <v>15.75</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="13"/>
-        <v>17.75</v>
+        <v>16.75</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="13"/>
-        <v>18.75</v>
+        <v>17.75</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="13"/>
@@ -1846,7 +1877,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>187.125</v>
+        <v>188.625</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -1858,56 +1889,56 @@
         <v>0.875</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" ref="D22:X22" si="14">(D6/2)+D14</f>
-        <v>3.25</v>
+        <f t="shared" ref="D22:X22" si="14">(D6/2)+C14</f>
+        <v>2.25</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="14"/>
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="14"/>
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="14"/>
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="14"/>
-        <v>7.25</v>
+        <v>6.25</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="14"/>
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="14"/>
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="14"/>
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="14"/>
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="14"/>
-        <v>12.25</v>
+        <v>11.25</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="14"/>
-        <v>13.25</v>
+        <v>12.25</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="14"/>
-        <v>16.125</v>
+        <v>13.875</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="14"/>
@@ -1944,7 +1975,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>107.75</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
@@ -1956,76 +1987,76 @@
         <v>0.625</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:X23" si="15">(D7/2)+D15</f>
-        <v>2.75</v>
+        <f t="shared" ref="D23:X23" si="15">(D7/2)+C15</f>
+        <v>1.75</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="15"/>
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="15"/>
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="15"/>
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="15"/>
-        <v>6.75</v>
+        <v>5.75</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="15"/>
-        <v>7.75</v>
+        <v>6.75</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="15"/>
-        <v>8.75</v>
+        <v>7.75</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="15"/>
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="15"/>
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="15"/>
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="15"/>
-        <v>12.75</v>
+        <v>11.75</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="15"/>
-        <v>14.875</v>
+        <v>13.125</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="15"/>
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="15"/>
-        <v>15.375</v>
+        <v>15.125</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" si="15"/>
-        <v>16.75</v>
+        <v>15.75</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="15"/>
-        <v>17.75</v>
+        <v>16.75</v>
       </c>
       <c r="T23" s="4">
         <f t="shared" si="15"/>
-        <v>18.75</v>
+        <v>17.75</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="V23" s="4">
         <f t="shared" si="15"/>
@@ -2042,7 +2073,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>184.875</v>
+        <v>186.125</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
@@ -2054,48 +2085,48 @@
         <v>0.75</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:X24" si="16">(D8/2)+D16</f>
-        <v>3</v>
+        <f t="shared" ref="D24:X24" si="16">(D8/2)+C16</f>
+        <v>2</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="16"/>
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="16"/>
-        <v>14.5</v>
+        <v>7.5</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="16"/>
-        <v>13.25</v>
+        <v>11.75</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="16"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="16"/>
-        <v>15.75</v>
+        <v>14.25</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="16"/>
-        <v>15.375</v>
+        <v>15.125</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="16"/>
-        <v>16.75</v>
+        <v>15.75</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="16"/>
-        <v>17.75</v>
+        <v>16.75</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="16"/>
-        <v>18.75</v>
+        <v>17.75</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="16"/>
@@ -2140,7 +2171,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>134.625</v>
+        <v>136.125</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
@@ -2230,83 +2261,83 @@
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:X32" si="17">(D19-0.5)*$AC$3</f>
-        <v>10.739726027397261</v>
+        <v>8.1159420289855078</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="17"/>
-        <v>27.61643835616438</v>
+        <v>16.231884057971016</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="17"/>
-        <v>39.890410958904106</v>
+        <v>29.217391304347828</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="17"/>
-        <v>52.164383561643831</v>
+        <v>42.20289855072464</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="17"/>
-        <v>64.438356164383563</v>
+        <v>55.188405797101453</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="17"/>
-        <v>62.904109589041092</v>
+        <v>63.304347826086961</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="17"/>
-        <v>79.780821917808211</v>
+        <v>71.420289855072468</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="17"/>
-        <v>92.054794520547944</v>
+        <v>84.405797101449281</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="17"/>
-        <v>104.32876712328766</v>
+        <v>97.391304347826093</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" si="17"/>
-        <v>116.60273972602739</v>
+        <v>110.37681159420291</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="17"/>
-        <v>115.06849315068493</v>
+        <v>118.49275362318841</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="17"/>
-        <v>131.94520547945206</v>
+        <v>126.60869565217392</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="17"/>
-        <v>144.21917808219177</v>
+        <v>139.59420289855075</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="17"/>
-        <v>156.49315068493149</v>
+        <v>152.57971014492756</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="17"/>
-        <v>168.76712328767121</v>
+        <v>165.56521739130437</v>
       </c>
       <c r="S27" s="6">
         <f t="shared" si="17"/>
-        <v>167.23287671232876</v>
+        <v>173.68115942028987</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="17"/>
-        <v>184.10958904109589</v>
+        <v>181.79710144927537</v>
       </c>
       <c r="U27" s="6">
         <f t="shared" si="17"/>
-        <v>182.57534246575341</v>
+        <v>189.91304347826087</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" si="17"/>
-        <v>199.45205479452054</v>
+        <v>198.02898550724638</v>
       </c>
       <c r="W27" s="5">
         <f t="shared" si="17"/>
-        <v>211.72602739726025</v>
+        <v>211.01449275362319</v>
       </c>
       <c r="X27" s="5">
         <f>(X19-0.5)*$AC$3</f>
@@ -2315,7 +2346,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="1">
         <f>SUM(C27:Y27)</f>
-        <v>2536.1095890410957</v>
+        <v>2459.130434782609</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
@@ -2328,71 +2359,71 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" si="18"/>
-        <v>24.547945205479451</v>
+        <v>12.985507246376812</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="18"/>
-        <v>36.821917808219176</v>
+        <v>25.971014492753625</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="18"/>
-        <v>49.095890410958901</v>
+        <v>38.956521739130437</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="18"/>
-        <v>61.369863013698627</v>
+        <v>51.94202898550725</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="18"/>
-        <v>73.643835616438352</v>
+        <v>64.927536231884062</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="18"/>
-        <v>85.917808219178085</v>
+        <v>77.913043478260875</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="18"/>
-        <v>98.191780821917803</v>
+        <v>90.898550724637687</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="18"/>
-        <v>110.46575342465752</v>
+        <v>103.8840579710145</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="18"/>
-        <v>122.73972602739725</v>
+        <v>116.86956521739131</v>
       </c>
       <c r="M28" s="5">
         <f t="shared" si="18"/>
-        <v>135.01369863013699</v>
+        <v>129.85507246376812</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" si="18"/>
-        <v>147.2876712328767</v>
+        <v>142.84057971014494</v>
       </c>
       <c r="O28" s="5">
         <f t="shared" si="18"/>
-        <v>159.56164383561642</v>
+        <v>155.82608695652175</v>
       </c>
       <c r="P28" s="5">
         <f t="shared" si="18"/>
-        <v>171.83561643835617</v>
+        <v>168.81159420289856</v>
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="18"/>
-        <v>184.10958904109589</v>
+        <v>181.79710144927537</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" si="18"/>
-        <v>182.57534246575341</v>
+        <v>189.91304347826087</v>
       </c>
       <c r="S28" s="5">
         <f t="shared" si="17"/>
-        <v>199.45205479452054</v>
+        <v>198.02898550724638</v>
       </c>
       <c r="T28" s="5">
         <f t="shared" si="17"/>
-        <v>211.72602739726025</v>
+        <v>211.01449275362319</v>
       </c>
       <c r="U28" s="5">
         <f t="shared" si="17"/>
@@ -2400,20 +2431,20 @@
       </c>
       <c r="V28" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>230.49275362318843</v>
       </c>
       <c r="W28" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="X28" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="Y28" s="5"/>
       <c r="Z28" s="1">
         <f t="shared" ref="Z28:Z32" si="19">SUM(C28:Y28)</f>
-        <v>2259.9452054794529</v>
+        <v>2403.9420289855075</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
@@ -2422,71 +2453,71 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="18"/>
-        <v>3.0684931506849313</v>
+        <v>3.2463768115942031</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="17"/>
-        <v>30.684931506849313</v>
+        <v>19.478260869565219</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="17"/>
-        <v>42.958904109589042</v>
+        <v>32.463768115942031</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="17"/>
-        <v>55.232876712328761</v>
+        <v>45.449275362318843</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="17"/>
-        <v>67.506849315068493</v>
+        <v>58.434782608695656</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="17"/>
-        <v>79.780821917808211</v>
+        <v>71.420289855072468</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="17"/>
-        <v>92.054794520547944</v>
+        <v>84.405797101449281</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="17"/>
-        <v>104.32876712328766</v>
+        <v>97.391304347826093</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="17"/>
-        <v>116.60273972602739</v>
+        <v>110.37681159420291</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="17"/>
-        <v>128.87671232876713</v>
+        <v>123.36231884057972</v>
       </c>
       <c r="M29" s="5">
         <f t="shared" si="17"/>
-        <v>141.15068493150685</v>
+        <v>136.34782608695653</v>
       </c>
       <c r="N29" s="5">
         <f t="shared" si="17"/>
-        <v>153.42465753424656</v>
+        <v>149.33333333333334</v>
       </c>
       <c r="O29" s="5">
         <f t="shared" si="17"/>
-        <v>165.69863013698628</v>
+        <v>162.31884057971016</v>
       </c>
       <c r="P29" s="5">
         <f t="shared" si="17"/>
-        <v>187.17808219178082</v>
+        <v>178.55072463768118</v>
       </c>
       <c r="Q29" s="5">
         <f t="shared" si="17"/>
-        <v>182.57534246575341</v>
+        <v>189.91304347826087</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="17"/>
-        <v>199.45205479452054</v>
+        <v>198.02898550724638</v>
       </c>
       <c r="S29" s="5">
         <f t="shared" si="17"/>
-        <v>211.72602739726025</v>
+        <v>211.01449275362319</v>
       </c>
       <c r="T29" s="5">
         <f t="shared" si="17"/>
@@ -2494,24 +2525,24 @@
       </c>
       <c r="U29" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>230.49275362318843</v>
       </c>
       <c r="V29" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="W29" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="X29" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="Y29" s="5"/>
       <c r="Z29" s="1">
         <f t="shared" si="19"/>
-        <v>2161.7534246575347</v>
+        <v>2306.550724637681</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
@@ -2520,96 +2551,96 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="18"/>
-        <v>4.602739726027397</v>
+        <v>4.8695652173913047</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="17"/>
-        <v>33.753424657534246</v>
+        <v>22.724637681159422</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="17"/>
-        <v>46.027397260273972</v>
+        <v>35.710144927536234</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="17"/>
-        <v>58.301369863013697</v>
+        <v>48.695652173913047</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="17"/>
-        <v>70.575342465753423</v>
+        <v>61.681159420289859</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="17"/>
-        <v>82.849315068493141</v>
+        <v>74.666666666666671</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="17"/>
-        <v>95.123287671232873</v>
+        <v>87.652173913043484</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="17"/>
-        <v>107.39726027397259</v>
+        <v>100.6376811594203</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="17"/>
-        <v>119.67123287671232</v>
+        <v>113.62318840579711</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="17"/>
-        <v>131.94520547945206</v>
+        <v>126.60869565217392</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="17"/>
-        <v>144.21917808219177</v>
+        <v>139.59420289855075</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="17"/>
-        <v>156.49315068493149</v>
+        <v>152.57971014492756</v>
       </c>
       <c r="O30" s="5">
         <f t="shared" si="17"/>
-        <v>191.7808219178082</v>
+        <v>173.68115942028987</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>188.28985507246378</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="S30" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="T30" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="U30" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="V30" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="W30" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="X30" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="Y30" s="5"/>
       <c r="Z30" s="1">
         <f t="shared" si="19"/>
-        <v>1187.5068493150679</v>
+        <v>1279.0724637681153</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
@@ -2618,71 +2649,71 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" si="18"/>
-        <v>1.5342465753424657</v>
+        <v>1.6231884057971016</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="17"/>
-        <v>27.61643835616438</v>
+        <v>16.231884057971016</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="17"/>
-        <v>39.890410958904106</v>
+        <v>29.217391304347828</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="17"/>
-        <v>52.164383561643831</v>
+        <v>42.20289855072464</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="17"/>
-        <v>64.438356164383563</v>
+        <v>55.188405797101453</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="17"/>
-        <v>76.712328767123282</v>
+        <v>68.173913043478265</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="17"/>
-        <v>88.986301369863014</v>
+        <v>81.159420289855078</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="17"/>
-        <v>101.26027397260273</v>
+        <v>94.14492753623189</v>
       </c>
       <c r="K31" s="5">
         <f t="shared" si="17"/>
-        <v>113.53424657534246</v>
+        <v>107.1304347826087</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="17"/>
-        <v>125.80821917808218</v>
+        <v>120.11594202898551</v>
       </c>
       <c r="M31" s="5">
         <f t="shared" si="17"/>
-        <v>138.08219178082192</v>
+        <v>133.10144927536231</v>
       </c>
       <c r="N31" s="5">
         <f t="shared" si="17"/>
-        <v>150.35616438356163</v>
+        <v>146.08695652173913</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" si="17"/>
-        <v>176.43835616438355</v>
+        <v>163.94202898550725</v>
       </c>
       <c r="P31" s="5">
         <f t="shared" si="17"/>
-        <v>184.10958904109589</v>
+        <v>181.79710144927537</v>
       </c>
       <c r="Q31" s="5">
         <f t="shared" si="17"/>
-        <v>182.57534246575341</v>
+        <v>189.91304347826087</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="17"/>
-        <v>199.45205479452054</v>
+        <v>198.02898550724638</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="17"/>
-        <v>211.72602739726025</v>
+        <v>211.01449275362319</v>
       </c>
       <c r="T31" s="5">
         <f t="shared" si="17"/>
@@ -2690,24 +2721,24 @@
       </c>
       <c r="U31" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>230.49275362318843</v>
       </c>
       <c r="V31" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="W31" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="X31" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="Y31" s="5"/>
       <c r="Z31" s="1">
         <f t="shared" si="19"/>
-        <v>2134.1369863013706</v>
+        <v>2274.086956521739</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
@@ -2716,43 +2747,43 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="18"/>
-        <v>3.0684931506849313</v>
+        <v>3.2463768115942031</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="17"/>
-        <v>30.684931506849313</v>
+        <v>19.478260869565219</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="17"/>
-        <v>52.164383561643831</v>
+        <v>35.710144927536234</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="17"/>
-        <v>171.83561643835617</v>
+        <v>90.898550724637687</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="17"/>
-        <v>156.49315068493149</v>
+        <v>146.08695652173913</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="17"/>
-        <v>165.69863013698628</v>
+        <v>162.31884057971016</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="17"/>
-        <v>187.17808219178082</v>
+        <v>178.55072463768118</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="17"/>
-        <v>182.57534246575341</v>
+        <v>189.91304347826087</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="17"/>
-        <v>199.45205479452054</v>
+        <v>198.02898550724638</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="17"/>
-        <v>211.72602739726025</v>
+        <v>211.01449275362319</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="17"/>
@@ -2760,52 +2791,52 @@
       </c>
       <c r="N32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>230.49275362318843</v>
       </c>
       <c r="O32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="P32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="S32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="T32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="U32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="V32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="W32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="X32" s="6">
         <f t="shared" si="17"/>
-        <v>-6.1369863013698627</v>
+        <v>-6.4927536231884062</v>
       </c>
       <c r="Y32" s="5"/>
       <c r="Z32" s="1">
         <f t="shared" si="19"/>
-        <v>1517.369863013698</v>
+        <v>1624.8115942028978</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -2936,4 +2967,716 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" style="7" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="8">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(C3:F3)</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7">
+        <f>224/(G3-1)</f>
+        <v>74.666666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(C4:F4)</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="12">
+        <f>64/3</f>
+        <v>21.333333333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <f>SUM(C5:F5)</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(C6:F6)</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <f>C9+D3</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <f>D9+E3</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="13">
+        <f>E9+F3</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="8">
+        <f>SUM(C9:F9)</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8">
+        <f>I3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <f>C10+D4</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
+        <f>D10+E4</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="13">
+        <f>E10+F4</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(C10:F10)</f>
+        <v>10</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8">
+        <f>I9+I4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <f>C11+D5</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <f>D11+E5</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="13">
+        <f>E11+F5</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="8">
+        <f>SUM(C11:F11)</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8">
+        <f t="shared" ref="I11:I12" si="0">I10+I5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <f>C12+D6</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
+        <f>D12+E6</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="13">
+        <f>E12+F6</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(C12:F12)</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8">
+        <f>I11+I6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <f>C3/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="13">
+        <f>(D3/2)+C9</f>
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" ref="E15:F15" si="1">(E3/2)+D9</f>
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="8">
+        <f>SUM(C15:F15)</f>
+        <v>8</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8">
+        <f>I9/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <f>C4/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" ref="D16:F16" si="2">(D4/2)+C10</f>
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(C16:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8">
+        <f>(I4/2)+I9</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <f>C5/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" ref="D17:F17" si="3">(D5/2)+C11</f>
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="8">
+        <f>SUM(C17:F17)</f>
+        <v>8</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8">
+        <f t="shared" ref="I17:I18" si="4">(I5/2)+I10</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C6/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" ref="D18:F18" si="5">(D6/2)+C12</f>
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(C18:F18)</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>3</v>
+      </c>
+      <c r="F20" s="13">
+        <v>4</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <f>(C15-0.5)*$L$3</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" ref="D21:G21" si="6">(D15-0.5)*$L$3</f>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="6"/>
+        <v>149.33333333333334</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="6"/>
+        <v>560</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="14">
+        <f>(I15-0.5)*$L$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" ref="C22:G22" si="7">(C16-0.5)*$L$3</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="7"/>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="7"/>
+        <v>149.33333333333334</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="7"/>
+        <v>560</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="14">
+        <f t="shared" ref="I22:I24" si="8">(I16-0.5)*$L$4</f>
+        <v>21.333333333333332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" ref="C23:G23" si="9">(C17-0.5)*$L$3</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="9"/>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="9"/>
+        <v>149.33333333333334</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="9"/>
+        <v>560</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="14">
+        <f t="shared" si="8"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" ref="C24:G24" si="10">(C18-0.5)*$L$3</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="10"/>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="10"/>
+        <v>149.33333333333334</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="10"/>
+        <v>224</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="10"/>
+        <v>560</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="14">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>